--- a/Data/output1.xlsx
+++ b/Data/output1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,12 +374,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>cases</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>deaths</t>
+          <t>Foreign</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>discharged_y</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>deaths_y</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>helpline</t>
         </is>
       </c>
     </row>
@@ -400,6 +415,17 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8662410978</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -418,6 +444,17 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9436055743</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -436,6 +473,17 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6913347770</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -454,6 +502,17 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -472,6 +531,17 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>077122-35091</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -490,6 +560,17 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -503,10 +584,21 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -521,10 +613,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>8558893911</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -544,6 +647,17 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -562,6 +676,17 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -578,7 +703,18 @@
         <v>15</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -593,10 +729,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0471-2552056</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -616,6 +763,17 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0755-2527177</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -632,7 +790,18 @@
         <v>49</v>
       </c>
       <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>020-26127394</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -652,6 +821,17 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3852411668</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -670,6 +850,17 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -688,6 +879,17 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -706,6 +908,17 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>7005539653</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -724,6 +937,17 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>9439994859</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -740,7 +964,18 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -755,10 +990,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0141-2225624</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -778,6 +1024,17 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -796,6 +1053,17 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>044-29510500</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -809,10 +1077,21 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -832,6 +1111,17 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0381-2315879</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -850,6 +1140,17 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -863,10 +1164,21 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>18001805145</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -881,10 +1193,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>3323412600</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -904,6 +1227,17 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>03192-232102</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -922,6 +1256,17 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>9779558282</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -940,6 +1285,17 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -953,11 +1309,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
       </c>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>011-22307154</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -976,6 +1343,17 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1912520982 (Jammu), 1942440283 (Kashmir) </t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -989,10 +1367,21 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1982256462</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1012,6 +1401,17 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1029,6 +1429,17 @@
       </c>
       <c r="D37" t="n">
         <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Data/output1.xlsx
+++ b/Data/output1.xlsx
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>

--- a/Data/output1.xlsx
+++ b/Data/output1.xlsx
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
         <v>14</v>
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D13" t="n">
         <v>7</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -1048,10 +1048,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>

--- a/Data/output1.xlsx
+++ b/Data/output1.xlsx
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -613,13 +613,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
         <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D13" t="n">
         <v>7</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>

--- a/Data/output1.xlsx
+++ b/Data/output1.xlsx
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
         <v>14</v>
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -1138,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1164,13 +1164,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1309,16 +1309,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
